--- a/iterationsNORMAL/iter_9/data.xlsx
+++ b/iterationsNORMAL/iter_9/data.xlsx
@@ -453,1652 +453,1652 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-24.13029096380449</v>
+        <v>-42.75440805816658</v>
       </c>
       <c r="B2" t="n">
-        <v>-21.52548200954824</v>
+        <v>-21.51001224298983</v>
       </c>
       <c r="C2" t="n">
-        <v>-23.15872870834535</v>
+        <v>11.8371301650287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>53.14415397792509</v>
+        <v>14.64371496567346</v>
       </c>
       <c r="B3" t="n">
-        <v>20.11562534458489</v>
+        <v>30.56671074394331</v>
       </c>
       <c r="C3" t="n">
-        <v>-22.41560411425986</v>
+        <v>28.03350289270855</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.477737003903408</v>
+        <v>11.94365472996626</v>
       </c>
       <c r="B4" t="n">
-        <v>11.15936660542883</v>
+        <v>-22.46660906623412</v>
       </c>
       <c r="C4" t="n">
-        <v>-43.48127589944956</v>
+        <v>-24.82887684548755</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-44.33644069600468</v>
+        <v>39.50354108160753</v>
       </c>
       <c r="B5" t="n">
-        <v>-37.8821414934566</v>
+        <v>-21.546900486403</v>
       </c>
       <c r="C5" t="n">
-        <v>93.46559630851556</v>
+        <v>-10.47041575337417</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.8940066703089043</v>
+        <v>17.42791069892955</v>
       </c>
       <c r="B6" t="n">
-        <v>77.9625955773115</v>
+        <v>32.28274242202938</v>
       </c>
       <c r="C6" t="n">
-        <v>54.94145113525715</v>
+        <v>19.09619130009153</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-18.17245957066745</v>
+        <v>-33.4662109274664</v>
       </c>
       <c r="B7" t="n">
-        <v>-25.43918196928489</v>
+        <v>29.43760342783751</v>
       </c>
       <c r="C7" t="n">
-        <v>-29.54798439583186</v>
+        <v>32.75878188279638</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-33.26704698551327</v>
+        <v>-18.49479814262498</v>
       </c>
       <c r="B8" t="n">
-        <v>5.593907341765633</v>
+        <v>21.36256788613531</v>
       </c>
       <c r="C8" t="n">
-        <v>74.21092848242448</v>
+        <v>19.089159603064</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-38.6721261499283</v>
+        <v>22.0612946391713</v>
       </c>
       <c r="B9" t="n">
-        <v>64.88827041218615</v>
+        <v>22.51127584177889</v>
       </c>
       <c r="C9" t="n">
-        <v>35.91934258327373</v>
+        <v>37.22946042181183</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.406058595679995</v>
+        <v>38.79412356458838</v>
       </c>
       <c r="B10" t="n">
-        <v>-9.720148223575261</v>
+        <v>25.35192496015474</v>
       </c>
       <c r="C10" t="n">
-        <v>22.34035867653489</v>
+        <v>-25.50397130073172</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>23.41276908719959</v>
+        <v>37.70889161437943</v>
       </c>
       <c r="B11" t="n">
-        <v>-28.74179613340775</v>
+        <v>23.53037639864959</v>
       </c>
       <c r="C11" t="n">
-        <v>-32.14610492589649</v>
+        <v>21.52364968702556</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-32.19790129305824</v>
+        <v>-17.43953659469438</v>
       </c>
       <c r="B12" t="n">
-        <v>-20.33289880887242</v>
+        <v>27.30227371110059</v>
       </c>
       <c r="C12" t="n">
-        <v>21.30724578653179</v>
+        <v>-29.13671018890461</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-20.21729807908159</v>
+        <v>1.557109695597845</v>
       </c>
       <c r="B13" t="n">
-        <v>-31.78997558683982</v>
+        <v>-27.46122669574735</v>
       </c>
       <c r="C13" t="n">
-        <v>-6.056057694810629</v>
+        <v>-15.89255765617779</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-18.37256930822938</v>
+        <v>30.4183799207313</v>
       </c>
       <c r="B14" t="n">
-        <v>16.45357468474868</v>
+        <v>-2.875919006642637</v>
       </c>
       <c r="C14" t="n">
-        <v>23.67361433138084</v>
+        <v>7.594866206167414</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>19.4111657050059</v>
+        <v>16.5937939572936</v>
       </c>
       <c r="B15" t="n">
-        <v>-22.12370793271876</v>
+        <v>34.5459771336668</v>
       </c>
       <c r="C15" t="n">
-        <v>-33.23854974437027</v>
+        <v>14.52517845621664</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11.62573030921685</v>
+        <v>-18.44101784520138</v>
       </c>
       <c r="B16" t="n">
-        <v>-27.72986011339344</v>
+        <v>31.55685901409506</v>
       </c>
       <c r="C16" t="n">
-        <v>7.853621871244188</v>
+        <v>-22.27619629367319</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-6.58858919198484</v>
+        <v>-28.71876657823265</v>
       </c>
       <c r="B17" t="n">
-        <v>-15.87524323597749</v>
+        <v>36.37342450053197</v>
       </c>
       <c r="C17" t="n">
-        <v>52.65259868237126</v>
+        <v>6.125003901252706</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>46.55158711268081</v>
+        <v>-32.96871780164314</v>
       </c>
       <c r="B18" t="n">
-        <v>-32.29421914964756</v>
+        <v>-26.50029005115312</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.93563517261071</v>
+        <v>-12.63197174092213</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-23.55338535167735</v>
+        <v>-34.67590027685757</v>
       </c>
       <c r="B19" t="n">
-        <v>13.28456557546784</v>
+        <v>24.86401896801163</v>
       </c>
       <c r="C19" t="n">
-        <v>-29.00470503926693</v>
+        <v>34.43589057664859</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20.58564058339124</v>
+        <v>36.06307062953638</v>
       </c>
       <c r="B20" t="n">
-        <v>7.12920072812779</v>
+        <v>15.65037149718644</v>
       </c>
       <c r="C20" t="n">
-        <v>-32.17991088680822</v>
+        <v>23.7836298709484</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-12.85773446552519</v>
+        <v>-47.79569648644276</v>
       </c>
       <c r="B21" t="n">
-        <v>-18.43426268626241</v>
+        <v>24.54833355930819</v>
       </c>
       <c r="C21" t="n">
-        <v>14.94714978532395</v>
+        <v>-11.44025507077777</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43.08112898023465</v>
+        <v>15.27627800181604</v>
       </c>
       <c r="B22" t="n">
-        <v>16.80661715982517</v>
+        <v>31.61735400178918</v>
       </c>
       <c r="C22" t="n">
-        <v>31.31250799139252</v>
+        <v>-17.68259141306909</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-4.749155263608818</v>
+        <v>-28.8351359542119</v>
       </c>
       <c r="B23" t="n">
-        <v>-47.42054271722487</v>
+        <v>-17.69677772342487</v>
       </c>
       <c r="C23" t="n">
-        <v>-27.1641948791364</v>
+        <v>25.44126542181666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-15.54399367025212</v>
+        <v>34.43803569385927</v>
       </c>
       <c r="B24" t="n">
-        <v>81.71850073080934</v>
+        <v>16.99166859098643</v>
       </c>
       <c r="C24" t="n">
-        <v>7.797597504338356</v>
+        <v>30.83763508137298</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>32.81452587522323</v>
+        <v>33.18355849632064</v>
       </c>
       <c r="B25" t="n">
-        <v>-18.09270173244338</v>
+        <v>-37.18446085071725</v>
       </c>
       <c r="C25" t="n">
-        <v>83.03750988396642</v>
+        <v>-10.98853554442058</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-24.01117090690757</v>
+        <v>-17.17199782040672</v>
       </c>
       <c r="B26" t="n">
-        <v>-4.011845405768179</v>
+        <v>17.97407058734163</v>
       </c>
       <c r="C26" t="n">
-        <v>19.05810546175242</v>
+        <v>-25.28781362177272</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12.62799868800636</v>
+        <v>-36.12737379861883</v>
       </c>
       <c r="B27" t="n">
-        <v>15.44784019746108</v>
+        <v>-39.50655814015241</v>
       </c>
       <c r="C27" t="n">
-        <v>7.923496160166737</v>
+        <v>-23.01602703714073</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-36.42987519922493</v>
+        <v>-14.74527663850494</v>
       </c>
       <c r="B28" t="n">
-        <v>18.93270789199198</v>
+        <v>-23.15562460294861</v>
       </c>
       <c r="C28" t="n">
-        <v>68.54223895579854</v>
+        <v>28.07808325611158</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-29.18964805832723</v>
+        <v>-21.09601349944029</v>
       </c>
       <c r="B29" t="n">
-        <v>24.28995522273612</v>
+        <v>-24.0451629058118</v>
       </c>
       <c r="C29" t="n">
-        <v>-18.85863153123169</v>
+        <v>-30.4260243859838</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>48.90452918519189</v>
+        <v>27.02949153546325</v>
       </c>
       <c r="B30" t="n">
-        <v>-24.60863123493038</v>
+        <v>-35.58628606538574</v>
       </c>
       <c r="C30" t="n">
-        <v>-23.8466143521457</v>
+        <v>-27.93769228924069</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-20.13433102850336</v>
+        <v>-31.96758923519113</v>
       </c>
       <c r="B31" t="n">
-        <v>-24.18538209454118</v>
+        <v>18.22786688984536</v>
       </c>
       <c r="C31" t="n">
-        <v>55.82029180047961</v>
+        <v>26.80718004023317</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-16.92833067200336</v>
+        <v>19.35666208728471</v>
       </c>
       <c r="B32" t="n">
-        <v>26.8508241880125</v>
+        <v>20.13064399753016</v>
       </c>
       <c r="C32" t="n">
-        <v>22.00531699823225</v>
+        <v>28.00948821154736</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-32.62225887183055</v>
+        <v>36.97831498291077</v>
       </c>
       <c r="B33" t="n">
-        <v>-27.41082875277318</v>
+        <v>-41.3327742538444</v>
       </c>
       <c r="C33" t="n">
-        <v>67.71146670538391</v>
+        <v>-20.8419868052467</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-10.72022661951472</v>
+        <v>27.78880687740709</v>
       </c>
       <c r="B34" t="n">
-        <v>21.46307180592351</v>
+        <v>19.34104943308966</v>
       </c>
       <c r="C34" t="n">
-        <v>38.34324423477424</v>
+        <v>-12.93720463062252</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-29.86616263590632</v>
+        <v>14.13763213371475</v>
       </c>
       <c r="B35" t="n">
-        <v>-17.08499334654682</v>
+        <v>-24.25751883025047</v>
       </c>
       <c r="C35" t="n">
-        <v>-22.4486617423276</v>
+        <v>38.59859239530823</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-29.31526333067328</v>
+        <v>31.40658182578995</v>
       </c>
       <c r="B36" t="n">
-        <v>-14.41752439639461</v>
+        <v>-21.70618908126491</v>
       </c>
       <c r="C36" t="n">
-        <v>-26.49023880607484</v>
+        <v>34.85620947991495</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>15.97626359026607</v>
+        <v>-30.52906819962409</v>
       </c>
       <c r="B37" t="n">
-        <v>40.24001603412781</v>
+        <v>20.42432903983717</v>
       </c>
       <c r="C37" t="n">
-        <v>-22.52262873282443</v>
+        <v>-30.15724593396754</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-4.966190848113005</v>
+        <v>-27.14443463681011</v>
       </c>
       <c r="B38" t="n">
-        <v>-29.12630242108195</v>
+        <v>-32.87574860013603</v>
       </c>
       <c r="C38" t="n">
-        <v>28.93527225996372</v>
+        <v>-20.66849731310761</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>12.62366041655381</v>
+        <v>22.44389642919192</v>
       </c>
       <c r="B39" t="n">
-        <v>-17.56162912167175</v>
+        <v>21.11601534010966</v>
       </c>
       <c r="C39" t="n">
-        <v>23.18513403184085</v>
+        <v>-8.058579604161677</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>51.86394800879542</v>
+        <v>-29.06959154743464</v>
       </c>
       <c r="B40" t="n">
-        <v>-29.9458442477859</v>
+        <v>-21.8321247574189</v>
       </c>
       <c r="C40" t="n">
-        <v>39.27423684169042</v>
+        <v>-33.96658475249541</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-27.21478765880913</v>
+        <v>33.50739063226212</v>
       </c>
       <c r="B41" t="n">
-        <v>-24.76113056898508</v>
+        <v>-25.82674362831943</v>
       </c>
       <c r="C41" t="n">
-        <v>25.62003049801821</v>
+        <v>38.67268196456443</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>29.10367263926842</v>
+        <v>-25.03132306196129</v>
       </c>
       <c r="B42" t="n">
-        <v>62.33635797718621</v>
+        <v>-27.64734010793689</v>
       </c>
       <c r="C42" t="n">
-        <v>-32.29652346164521</v>
+        <v>28.40503005655359</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-19.76792853444048</v>
+        <v>-15.29214982834603</v>
       </c>
       <c r="B43" t="n">
-        <v>81.45584651200267</v>
+        <v>-26.63126871501233</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2405729413619925</v>
+        <v>24.4557303786275</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-31.35709837728414</v>
+        <v>-23.13908730163781</v>
       </c>
       <c r="B44" t="n">
-        <v>22.31896100351815</v>
+        <v>28.6183625983072</v>
       </c>
       <c r="C44" t="n">
-        <v>-27.91596825880263</v>
+        <v>-33.56239144743488</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>17.61198716465559</v>
+        <v>-32.94960008195169</v>
       </c>
       <c r="B45" t="n">
-        <v>-17.90649680409024</v>
+        <v>25.70847671925913</v>
       </c>
       <c r="C45" t="n">
-        <v>-44.57910278641869</v>
+        <v>39.23678287785373</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>31.07827463521993</v>
+        <v>13.42836970481742</v>
       </c>
       <c r="B46" t="n">
-        <v>23.29728437556389</v>
+        <v>33.61951939717274</v>
       </c>
       <c r="C46" t="n">
-        <v>-27.86314949553137</v>
+        <v>-46.30086865139411</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-12.61632361282824</v>
+        <v>-29.59631377996383</v>
       </c>
       <c r="B47" t="n">
-        <v>5.765064056853426</v>
+        <v>41.26272354213401</v>
       </c>
       <c r="C47" t="n">
-        <v>-11.50652705238408</v>
+        <v>-15.71845269975078</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-29.14161921060358</v>
+        <v>19.58547312455608</v>
       </c>
       <c r="B48" t="n">
-        <v>38.58992649301709</v>
+        <v>19.41671484679541</v>
       </c>
       <c r="C48" t="n">
-        <v>17.13076524931039</v>
+        <v>-10.78267623250559</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>49.67403326373195</v>
+        <v>-18.01994270641609</v>
       </c>
       <c r="B49" t="n">
-        <v>-28.03551255981864</v>
+        <v>44.64601113959704</v>
       </c>
       <c r="C49" t="n">
-        <v>-27.32272988560482</v>
+        <v>-31.12943008055748</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-9.052551067333717</v>
+        <v>20.27145930241273</v>
       </c>
       <c r="B50" t="n">
-        <v>5.794760542782627</v>
+        <v>-20.99682378136329</v>
       </c>
       <c r="C50" t="n">
-        <v>-39.81812174092515</v>
+        <v>-27.57982651209507</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>45.42046953270369</v>
+        <v>-23.9522359289509</v>
       </c>
       <c r="B51" t="n">
-        <v>64.29510560511083</v>
+        <v>4.36788133367775</v>
       </c>
       <c r="C51" t="n">
-        <v>-21.57105881442493</v>
+        <v>-31.11593021763256</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>31.58335898598339</v>
+        <v>-34.81776062427939</v>
       </c>
       <c r="B52" t="n">
-        <v>19.63877709973569</v>
+        <v>-22.91180085946035</v>
       </c>
       <c r="C52" t="n">
-        <v>45.57492321764388</v>
+        <v>32.06193740866272</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-23.26838628133313</v>
+        <v>-6.06317592509824</v>
       </c>
       <c r="B53" t="n">
-        <v>-28.55601820308381</v>
+        <v>22.36120587557098</v>
       </c>
       <c r="C53" t="n">
-        <v>-22.7620137910136</v>
+        <v>10.43834134468553</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>64.6951346440657</v>
+        <v>23.92851035674481</v>
       </c>
       <c r="B54" t="n">
-        <v>-24.68363650298073</v>
+        <v>-32.94402854384002</v>
       </c>
       <c r="C54" t="n">
-        <v>4.409702137567204</v>
+        <v>24.48491411619242</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>23.07580171604862</v>
+        <v>34.93517397042313</v>
       </c>
       <c r="B55" t="n">
-        <v>-46.67558170132234</v>
+        <v>-10.77880661666156</v>
       </c>
       <c r="C55" t="n">
-        <v>38.94034361976112</v>
+        <v>-21.30637729878177</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-1.688876112855892</v>
+        <v>29.5323112614672</v>
       </c>
       <c r="B56" t="n">
-        <v>-5.667475068111047</v>
+        <v>-23.80544456133953</v>
       </c>
       <c r="C56" t="n">
-        <v>-38.7259218060746</v>
+        <v>18.13128068646655</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-35.70095284816411</v>
+        <v>19.9596381580913</v>
       </c>
       <c r="B57" t="n">
-        <v>59.79650524779628</v>
+        <v>-21.32781024962474</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.3532689626159738</v>
+        <v>-17.58004407027894</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-33.21378872480688</v>
+        <v>-21.27167758893965</v>
       </c>
       <c r="B58" t="n">
-        <v>20.01090941408482</v>
+        <v>-21.49909595587643</v>
       </c>
       <c r="C58" t="n">
-        <v>42.88165818661241</v>
+        <v>12.2965927683077</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>52.153074975688</v>
+        <v>22.51783942672774</v>
       </c>
       <c r="B59" t="n">
-        <v>-19.01912999528498</v>
+        <v>-33.97537000556731</v>
       </c>
       <c r="C59" t="n">
-        <v>34.37296566980377</v>
+        <v>-28.55993542703852</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-22.2743466685228</v>
+        <v>19.33380137383852</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9192713707641432</v>
+        <v>-29.02492219039426</v>
       </c>
       <c r="C60" t="n">
-        <v>-20.77348457186526</v>
+        <v>-9.152256539304529</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-14.74629232492947</v>
+        <v>31.78532615571058</v>
       </c>
       <c r="B61" t="n">
-        <v>-26.2514134925717</v>
+        <v>-27.42319942100102</v>
       </c>
       <c r="C61" t="n">
-        <v>-18.30663568227048</v>
+        <v>20.87991957129892</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>21.71292575888958</v>
+        <v>38.16656954128282</v>
       </c>
       <c r="B62" t="n">
-        <v>58.15262406867881</v>
+        <v>26.20382826864564</v>
       </c>
       <c r="C62" t="n">
-        <v>47.15557357112374</v>
+        <v>-30.24778316651862</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.6716813298518565</v>
+        <v>47.1153537168348</v>
       </c>
       <c r="B63" t="n">
-        <v>26.89668171378343</v>
+        <v>17.4538558444119</v>
       </c>
       <c r="C63" t="n">
-        <v>-31.14369435116629</v>
+        <v>-22.06354201241621</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-17.90720671593971</v>
+        <v>-30.01554659263</v>
       </c>
       <c r="B64" t="n">
-        <v>12.55030339295071</v>
+        <v>-34.18237313039771</v>
       </c>
       <c r="C64" t="n">
-        <v>-32.60115148243998</v>
+        <v>35.62311293786536</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.417134838904348</v>
+        <v>-26.50509974042036</v>
       </c>
       <c r="B65" t="n">
-        <v>-3.60169583468647</v>
+        <v>-18.96242219995849</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2744369737724535</v>
+        <v>30.49314129702212</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-38.03170569554979</v>
+        <v>18.87470783725917</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.6963123784224983</v>
+        <v>30.22619503272314</v>
       </c>
       <c r="C66" t="n">
-        <v>35.5903932611606</v>
+        <v>-12.74402500294986</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>39.08511510518259</v>
+        <v>19.87123394087413</v>
       </c>
       <c r="B67" t="n">
-        <v>-16.6477513702573</v>
+        <v>-21.31789160268396</v>
       </c>
       <c r="C67" t="n">
-        <v>57.29296106646875</v>
+        <v>-31.29439272446881</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>28.70770656872801</v>
+        <v>-16.72580755872823</v>
       </c>
       <c r="B68" t="n">
-        <v>34.06467986645524</v>
+        <v>21.12981362591327</v>
       </c>
       <c r="C68" t="n">
-        <v>-25.87656805829658</v>
+        <v>12.67532631677179</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-14.22275775097503</v>
+        <v>26.99363985203954</v>
       </c>
       <c r="B69" t="n">
-        <v>-48.71770928436995</v>
+        <v>-37.55923531659516</v>
       </c>
       <c r="C69" t="n">
-        <v>44.94925755924355</v>
+        <v>-8.170082324944257</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-32.53320791321167</v>
+        <v>-18.12566845988149</v>
       </c>
       <c r="B70" t="n">
-        <v>23.29186656124266</v>
+        <v>21.46533753096496</v>
       </c>
       <c r="C70" t="n">
-        <v>-23.05009324197975</v>
+        <v>26.01715675055705</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-25.4800239451583</v>
+        <v>-17.74747171092429</v>
       </c>
       <c r="B71" t="n">
-        <v>-5.308953045775769</v>
+        <v>34.13039890608922</v>
       </c>
       <c r="C71" t="n">
-        <v>-25.80833402571642</v>
+        <v>18.42171735774199</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-28.38304988263664</v>
+        <v>27.69202628530173</v>
       </c>
       <c r="B72" t="n">
-        <v>-35.78891656841252</v>
+        <v>21.36733744809404</v>
       </c>
       <c r="C72" t="n">
-        <v>-16.90865007682591</v>
+        <v>19.2440133454718</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>29.53480332290973</v>
+        <v>-49.60896617882794</v>
       </c>
       <c r="B73" t="n">
-        <v>34.45734491241195</v>
+        <v>-30.80970811601193</v>
       </c>
       <c r="C73" t="n">
-        <v>-2.442966632407222</v>
+        <v>-18.1081055767668</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-8.530771237124663</v>
+        <v>-20.90814542242115</v>
       </c>
       <c r="B74" t="n">
-        <v>-25.53681465914037</v>
+        <v>6.959393340756209</v>
       </c>
       <c r="C74" t="n">
-        <v>-37.60389772750339</v>
+        <v>-20.73189538213496</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>100.2377116337561</v>
+        <v>32.23000431352433</v>
       </c>
       <c r="B75" t="n">
-        <v>5.66764551574034</v>
+        <v>-24.07277072775847</v>
       </c>
       <c r="C75" t="n">
-        <v>-30.7262659771438</v>
+        <v>-26.52273719198498</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>33.95467561070705</v>
+        <v>40.05502671654232</v>
       </c>
       <c r="B76" t="n">
-        <v>-38.62394041691291</v>
+        <v>-31.12044582953435</v>
       </c>
       <c r="C76" t="n">
-        <v>47.2380405811081</v>
+        <v>24.88464787259395</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>28.12631551463372</v>
+        <v>32.69535002538314</v>
       </c>
       <c r="B77" t="n">
-        <v>9.719432122244211</v>
+        <v>-33.71109821272503</v>
       </c>
       <c r="C77" t="n">
-        <v>-10.91400631849779</v>
+        <v>-3.91351713374677</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.9557233791773881</v>
+        <v>-20.7164959610968</v>
       </c>
       <c r="B78" t="n">
-        <v>23.31028799938687</v>
+        <v>-23.21907484378032</v>
       </c>
       <c r="C78" t="n">
-        <v>59.58322475148638</v>
+        <v>17.57734285058015</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.2764176571962</v>
+        <v>32.92019195067291</v>
       </c>
       <c r="B79" t="n">
-        <v>-39.80666998969608</v>
+        <v>18.03396860568336</v>
       </c>
       <c r="C79" t="n">
-        <v>66.56426135156212</v>
+        <v>18.61984043758062</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-7.099440637135506</v>
+        <v>-30.73531877477646</v>
       </c>
       <c r="B80" t="n">
-        <v>-23.78516210695416</v>
+        <v>20.01317742169245</v>
       </c>
       <c r="C80" t="n">
-        <v>-17.77493569020699</v>
+        <v>-20.05400871638063</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-1.395913630098364</v>
+        <v>-35.02363239052729</v>
       </c>
       <c r="B81" t="n">
-        <v>29.16493834592329</v>
+        <v>-21.42319783582643</v>
       </c>
       <c r="C81" t="n">
-        <v>25.29785489727937</v>
+        <v>-24.69968499832572</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.80541058613637</v>
+        <v>-25.66630705829025</v>
       </c>
       <c r="B82" t="n">
-        <v>-33.54763178771525</v>
+        <v>38.25448782628552</v>
       </c>
       <c r="C82" t="n">
-        <v>-22.42985313202373</v>
+        <v>-24.21546607302425</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-34.99859982525683</v>
+        <v>-20.70395630080978</v>
       </c>
       <c r="B83" t="n">
-        <v>17.24862365062603</v>
+        <v>-28.36823612278859</v>
       </c>
       <c r="C83" t="n">
-        <v>10.00620964343486</v>
+        <v>22.76271525010264</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.861232388670827</v>
+        <v>27.45828926942419</v>
       </c>
       <c r="B84" t="n">
-        <v>52.73386692550373</v>
+        <v>-33.87200837367454</v>
       </c>
       <c r="C84" t="n">
-        <v>-2.485759792777536</v>
+        <v>28.02669602161155</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-24.234633236684</v>
+        <v>-33.19126177061181</v>
       </c>
       <c r="B85" t="n">
-        <v>44.16001281240585</v>
+        <v>-37.16907792608502</v>
       </c>
       <c r="C85" t="n">
-        <v>-35.99018080898546</v>
+        <v>21.0152702959281</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>38.01969198619916</v>
+        <v>-28.89277384201858</v>
       </c>
       <c r="B86" t="n">
-        <v>6.720311228165681</v>
+        <v>-27.44219402111537</v>
       </c>
       <c r="C86" t="n">
-        <v>-30.13158245720678</v>
+        <v>25.20970095460851</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-26.25769712199446</v>
+        <v>35.63420160481739</v>
       </c>
       <c r="B87" t="n">
-        <v>33.69554221584843</v>
+        <v>-28.39306531735794</v>
       </c>
       <c r="C87" t="n">
-        <v>-21.99589195544845</v>
+        <v>28.34987628654315</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>21.86552172659748</v>
+        <v>16.76131936163573</v>
       </c>
       <c r="B88" t="n">
-        <v>6.037106503710729</v>
+        <v>-25.26437448732703</v>
       </c>
       <c r="C88" t="n">
-        <v>48.61449609390047</v>
+        <v>25.32748083633536</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-34.84326547354939</v>
+        <v>17.38918935203567</v>
       </c>
       <c r="B89" t="n">
-        <v>-23.00081648567752</v>
+        <v>24.80322496945603</v>
       </c>
       <c r="C89" t="n">
-        <v>-29.42500370255869</v>
+        <v>19.8380414076217</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>50.76395789122321</v>
+        <v>-21.98815537137889</v>
       </c>
       <c r="B90" t="n">
-        <v>-15.76714977833418</v>
+        <v>-35.92025448419484</v>
       </c>
       <c r="C90" t="n">
-        <v>48.62355650222443</v>
+        <v>9.736239587883183</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-35.57346030443443</v>
+        <v>-34.45107620044783</v>
       </c>
       <c r="B91" t="n">
-        <v>57.23131423060425</v>
+        <v>29.59243856328044</v>
       </c>
       <c r="C91" t="n">
-        <v>46.33224525619969</v>
+        <v>11.17267255300357</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>47.45796394027711</v>
+        <v>17.29705625219639</v>
       </c>
       <c r="B92" t="n">
-        <v>37.71341469616672</v>
+        <v>42.01338670628022</v>
       </c>
       <c r="C92" t="n">
-        <v>-25.08842700858253</v>
+        <v>-35.11140505978216</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-25.27619363820978</v>
+        <v>26.64123783678415</v>
       </c>
       <c r="B93" t="n">
-        <v>-38.76671639835646</v>
+        <v>28.38744182454663</v>
       </c>
       <c r="C93" t="n">
-        <v>7.130400810423915</v>
+        <v>-27.41756171515489</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>11.06487774245367</v>
+        <v>27.99268274012241</v>
       </c>
       <c r="B94" t="n">
-        <v>28.45681381969334</v>
+        <v>40.14106490806846</v>
       </c>
       <c r="C94" t="n">
-        <v>-21.19162314396494</v>
+        <v>-20.24307781436915</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-33.83668746351639</v>
+        <v>29.55884255126957</v>
       </c>
       <c r="B95" t="n">
-        <v>36.53517606619997</v>
+        <v>31.00908999831404</v>
       </c>
       <c r="C95" t="n">
-        <v>34.86082849000633</v>
+        <v>-26.90474827516921</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-38.85303663331136</v>
+        <v>32.35034895725003</v>
       </c>
       <c r="B96" t="n">
-        <v>-23.86974901116759</v>
+        <v>-23.36293098186885</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.3188432433213811</v>
+        <v>13.77864582453456</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>37.01395325971284</v>
+        <v>-6.861587132444113</v>
       </c>
       <c r="B97" t="n">
-        <v>-31.45217019169208</v>
+        <v>-20.08367241139219</v>
       </c>
       <c r="C97" t="n">
-        <v>22.12310124573378</v>
+        <v>-25.38932765648875</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>37.33245734916398</v>
+        <v>-27.89647088630884</v>
       </c>
       <c r="B98" t="n">
-        <v>-21.6918001999159</v>
+        <v>-39.80403378496732</v>
       </c>
       <c r="C98" t="n">
-        <v>-45.9944680582615</v>
+        <v>12.07317296803622</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-35.38246278843115</v>
+        <v>-45.23317637833989</v>
       </c>
       <c r="B99" t="n">
-        <v>-17.81797421446116</v>
+        <v>-38.39277461667292</v>
       </c>
       <c r="C99" t="n">
-        <v>-23.34967484249886</v>
+        <v>-30.74982229385763</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-29.38702280292682</v>
+        <v>12.88471614170021</v>
       </c>
       <c r="B100" t="n">
-        <v>-23.85894350799233</v>
+        <v>-38.65589805620712</v>
       </c>
       <c r="C100" t="n">
-        <v>-29.52474397053128</v>
+        <v>-18.62037164322059</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-26.1437985730544</v>
+        <v>32.26336164689921</v>
       </c>
       <c r="B101" t="n">
-        <v>55.1312229758636</v>
+        <v>-35.35615224757969</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.7101463795198</v>
+        <v>-33.43486824860886</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-20.4690755489786</v>
+        <v>-41.59013129994447</v>
       </c>
       <c r="B102" t="n">
-        <v>-28.17185412849251</v>
+        <v>17.34007857041795</v>
       </c>
       <c r="C102" t="n">
-        <v>35.45204619674434</v>
+        <v>27.81698692273312</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-4.243429311132799</v>
+        <v>-15.53528260754195</v>
       </c>
       <c r="B103" t="n">
-        <v>29.78706572547111</v>
+        <v>26.16447580083932</v>
       </c>
       <c r="C103" t="n">
-        <v>18.87180180660425</v>
+        <v>14.3719343035889</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-12.19947089052482</v>
+        <v>-33.48995418324322</v>
       </c>
       <c r="B104" t="n">
-        <v>-14.48630285328488</v>
+        <v>25.14945273009603</v>
       </c>
       <c r="C104" t="n">
-        <v>39.44228547238794</v>
+        <v>29.90858877389478</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>29.66350231407702</v>
+        <v>-24.32885219163809</v>
       </c>
       <c r="B105" t="n">
-        <v>33.56195725200113</v>
+        <v>28.7384232018615</v>
       </c>
       <c r="C105" t="n">
-        <v>55.6924796649288</v>
+        <v>-34.50619999821346</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-18.22703433380798</v>
+        <v>39.74300196658926</v>
       </c>
       <c r="B106" t="n">
-        <v>-41.57470028245221</v>
+        <v>-13.01603878314523</v>
       </c>
       <c r="C106" t="n">
-        <v>39.97967432791328</v>
+        <v>-31.47450349037269</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-21.89606511283187</v>
+        <v>18.03101807080189</v>
       </c>
       <c r="B107" t="n">
-        <v>64.01806718387473</v>
+        <v>-23.58321254707633</v>
       </c>
       <c r="C107" t="n">
-        <v>-26.20558224371159</v>
+        <v>-20.39964627616541</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-29.14910093496882</v>
+        <v>30.57726710447853</v>
       </c>
       <c r="B108" t="n">
-        <v>9.957491682134684</v>
+        <v>21.25467608925054</v>
       </c>
       <c r="C108" t="n">
-        <v>-9.176010586783407</v>
+        <v>-4.490425310506968</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>4.821271556366313</v>
+        <v>21.69596645165734</v>
       </c>
       <c r="B109" t="n">
-        <v>-5.775876841983809</v>
+        <v>-11.07244463119127</v>
       </c>
       <c r="C109" t="n">
-        <v>29.64037355560972</v>
+        <v>31.37605123536493</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-29.69540276667084</v>
+        <v>8.934859053815387</v>
       </c>
       <c r="B110" t="n">
-        <v>11.97638165044827</v>
+        <v>12.727333202261</v>
       </c>
       <c r="C110" t="n">
-        <v>-34.91563281674691</v>
+        <v>-5.588647087982846</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>12.63710351996481</v>
+        <v>-30.96011293790621</v>
       </c>
       <c r="B111" t="n">
-        <v>-12.24270615161243</v>
+        <v>26.58046678096997</v>
       </c>
       <c r="C111" t="n">
-        <v>35.87278803550124</v>
+        <v>-16.2702404737262</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-28.0217845043756</v>
+        <v>-39.28973436149616</v>
       </c>
       <c r="B112" t="n">
-        <v>69.99106896741965</v>
+        <v>26.85477051339385</v>
       </c>
       <c r="C112" t="n">
-        <v>17.5568051404216</v>
+        <v>26.81003529810867</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>10.86078291251011</v>
+        <v>-20.71945256717935</v>
       </c>
       <c r="B113" t="n">
-        <v>22.73714947199407</v>
+        <v>-19.6190251548976</v>
       </c>
       <c r="C113" t="n">
-        <v>31.22263813587069</v>
+        <v>36.85073604732699</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>19.72222630054019</v>
+        <v>27.44998132522439</v>
       </c>
       <c r="B114" t="n">
-        <v>-10.49301619500946</v>
+        <v>27.55940522194505</v>
       </c>
       <c r="C114" t="n">
-        <v>-23.61223022133961</v>
+        <v>33.93208127214093</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-21.06810698474668</v>
+        <v>18.98718875001586</v>
       </c>
       <c r="B115" t="n">
-        <v>-32.35571692524256</v>
+        <v>25.7904907376574</v>
       </c>
       <c r="C115" t="n">
-        <v>11.49870224161196</v>
+        <v>-19.34759474489039</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>15.43562697084111</v>
+        <v>12.12872402172617</v>
       </c>
       <c r="B116" t="n">
-        <v>34.81311263111189</v>
+        <v>-46.26536030824854</v>
       </c>
       <c r="C116" t="n">
-        <v>42.46794642522319</v>
+        <v>22.59688672306449</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-15.22528743980861</v>
+        <v>-27.32117508709268</v>
       </c>
       <c r="B117" t="n">
-        <v>54.84864506075333</v>
+        <v>-36.44003306347508</v>
       </c>
       <c r="C117" t="n">
-        <v>-9.626358259106199</v>
+        <v>20.34312551903543</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-17.08649568947517</v>
+        <v>-22.04327857025892</v>
       </c>
       <c r="B118" t="n">
-        <v>35.27690270149245</v>
+        <v>-25.12336612367911</v>
       </c>
       <c r="C118" t="n">
-        <v>-14.67273431717003</v>
+        <v>-17.60749312885854</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-32.96212162971054</v>
+        <v>-26.1154265754823</v>
       </c>
       <c r="B119" t="n">
-        <v>-25.24581779668733</v>
+        <v>14.356487992169</v>
       </c>
       <c r="C119" t="n">
-        <v>-13.33591911476166</v>
+        <v>31.06544119841377</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>42.8683572907679</v>
+        <v>-30.45975761989137</v>
       </c>
       <c r="B120" t="n">
-        <v>36.19234401239916</v>
+        <v>27.42571812780316</v>
       </c>
       <c r="C120" t="n">
-        <v>-34.02695817842427</v>
+        <v>-40.98286782388643</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-28.67705906780308</v>
+        <v>38.5956918629114</v>
       </c>
       <c r="B121" t="n">
-        <v>-35.47130970189779</v>
+        <v>40.34914763329581</v>
       </c>
       <c r="C121" t="n">
-        <v>59.57632093624002</v>
+        <v>31.66707768382516</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>33.37218696411048</v>
+        <v>42.746875794346</v>
       </c>
       <c r="B122" t="n">
-        <v>-17.39525332485347</v>
+        <v>24.84107807613645</v>
       </c>
       <c r="C122" t="n">
-        <v>-27.77579438468176</v>
+        <v>-28.22412178071258</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>24.06997344722212</v>
+        <v>-24.65953526965026</v>
       </c>
       <c r="B123" t="n">
-        <v>47.17073875504897</v>
+        <v>35.75945409001371</v>
       </c>
       <c r="C123" t="n">
-        <v>34.3105907294696</v>
+        <v>19.41278737176513</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>18.00582530264583</v>
+        <v>28.67063155702359</v>
       </c>
       <c r="B124" t="n">
-        <v>66.29113056841879</v>
+        <v>15.12603773910277</v>
       </c>
       <c r="C124" t="n">
-        <v>58.36097365729586</v>
+        <v>18.36686142411298</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>17.81776224843708</v>
+        <v>-37.47507664268159</v>
       </c>
       <c r="B125" t="n">
-        <v>-9.787232990533353</v>
+        <v>44.05766382753558</v>
       </c>
       <c r="C125" t="n">
-        <v>59.93407071892657</v>
+        <v>-19.20477971177811</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-23.932251800601</v>
+        <v>-27.75504025642227</v>
       </c>
       <c r="B126" t="n">
-        <v>-26.08774667940009</v>
+        <v>-24.69943615115463</v>
       </c>
       <c r="C126" t="n">
-        <v>39.05099682119789</v>
+        <v>-28.64754890001754</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-22.37648275901095</v>
+        <v>-22.96655944248201</v>
       </c>
       <c r="B127" t="n">
-        <v>-25.57860271803036</v>
+        <v>-26.04256747712555</v>
       </c>
       <c r="C127" t="n">
-        <v>-10.46455868566278</v>
+        <v>25.07496319378302</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-38.63998524660067</v>
+        <v>-30.00749419345888</v>
       </c>
       <c r="B128" t="n">
-        <v>20.02329816137815</v>
+        <v>-26.57883149703444</v>
       </c>
       <c r="C128" t="n">
-        <v>10.00183101729981</v>
+        <v>12.43414055794071</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-25.10478525065792</v>
+        <v>28.18261705843164</v>
       </c>
       <c r="B129" t="n">
-        <v>74.82864845550691</v>
+        <v>-23.55969848995293</v>
       </c>
       <c r="C129" t="n">
-        <v>-30.28277342903634</v>
+        <v>-30.74756270001861</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>28.52473834857111</v>
+        <v>-42.29865697875682</v>
       </c>
       <c r="B130" t="n">
-        <v>-27.28595830949092</v>
+        <v>-17.61794483002585</v>
       </c>
       <c r="C130" t="n">
-        <v>-6.362614772693017</v>
+        <v>-15.93424766911639</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>39.19329739869482</v>
+        <v>28.62510960747258</v>
       </c>
       <c r="B131" t="n">
-        <v>-21.34325191157679</v>
+        <v>-30.26052705760602</v>
       </c>
       <c r="C131" t="n">
-        <v>-33.34684016097439</v>
+        <v>12.81046733177993</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>26.94991521955354</v>
+        <v>-8.719341182326854</v>
       </c>
       <c r="B132" t="n">
-        <v>-34.71647520916188</v>
+        <v>36.90282924219336</v>
       </c>
       <c r="C132" t="n">
-        <v>-13.97906163365677</v>
+        <v>12.91499420658243</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-11.27286389782795</v>
+        <v>27.81249475332274</v>
       </c>
       <c r="B133" t="n">
-        <v>19.91003547872455</v>
+        <v>29.26457887619061</v>
       </c>
       <c r="C133" t="n">
-        <v>28.72899494646527</v>
+        <v>-34.85866647741296</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-24.42102621879561</v>
+        <v>12.22861465067991</v>
       </c>
       <c r="B134" t="n">
-        <v>-12.98647480896086</v>
+        <v>-16.3047446651142</v>
       </c>
       <c r="C134" t="n">
-        <v>11.36399652949681</v>
+        <v>3.302367607098878</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-20.38723374231623</v>
+        <v>34.30440921824996</v>
       </c>
       <c r="B135" t="n">
-        <v>-36.93497731096836</v>
+        <v>17.38099223634223</v>
       </c>
       <c r="C135" t="n">
-        <v>-19.10733759228543</v>
+        <v>35.39940403875158</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-19.87173797005371</v>
+        <v>31.5984195742272</v>
       </c>
       <c r="B136" t="n">
-        <v>-37.28053298776274</v>
+        <v>4.955619996606406</v>
       </c>
       <c r="C136" t="n">
-        <v>-17.09516284155836</v>
+        <v>25.08018281864697</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-23.30746157988264</v>
+        <v>-27.21452457567374</v>
       </c>
       <c r="B137" t="n">
-        <v>-30.74597367097876</v>
+        <v>3.614298835614192</v>
       </c>
       <c r="C137" t="n">
-        <v>-28.73233366966313</v>
+        <v>30.33941381339474</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-6.458434412167293</v>
+        <v>21.81511287416206</v>
       </c>
       <c r="B138" t="n">
-        <v>5.79886794881472</v>
+        <v>-13.48389743597311</v>
       </c>
       <c r="C138" t="n">
-        <v>-17.09154769322981</v>
+        <v>-19.60169858624967</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>58.40737126682642</v>
+        <v>19.32875314271118</v>
       </c>
       <c r="B139" t="n">
-        <v>-21.2145040774682</v>
+        <v>-20.9409471187576</v>
       </c>
       <c r="C139" t="n">
-        <v>-24.66953478807497</v>
+        <v>-15.82655745482704</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-12.93856925162296</v>
+        <v>15.66215408368232</v>
       </c>
       <c r="B140" t="n">
-        <v>-23.80508368660083</v>
+        <v>-19.48674248126048</v>
       </c>
       <c r="C140" t="n">
-        <v>-11.97269683441357</v>
+        <v>-16.99956945083364</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>5.603553868466211</v>
+        <v>-14.36574044866925</v>
       </c>
       <c r="B141" t="n">
-        <v>-25.11981999078957</v>
+        <v>-15.83403485497461</v>
       </c>
       <c r="C141" t="n">
-        <v>28.06590564807844</v>
+        <v>28.16387010674172</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-25.61628496969574</v>
+        <v>-28.7419185547797</v>
       </c>
       <c r="B142" t="n">
-        <v>-22.32559095533009</v>
+        <v>27.92989331607929</v>
       </c>
       <c r="C142" t="n">
-        <v>0.319323539770746</v>
+        <v>-42.3910202152346</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-19.87295021110757</v>
+        <v>19.97710230109618</v>
       </c>
       <c r="B143" t="n">
-        <v>-35.78031367870148</v>
+        <v>37.40166495298412</v>
       </c>
       <c r="C143" t="n">
-        <v>-13.892512396996</v>
+        <v>-32.67566713032313</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>26.99142628450723</v>
+        <v>26.45975070220676</v>
       </c>
       <c r="B144" t="n">
-        <v>25.07307426601007</v>
+        <v>-32.72641020299898</v>
       </c>
       <c r="C144" t="n">
-        <v>-23.20254171016582</v>
+        <v>-23.31808066746954</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-24.05422451362938</v>
+        <v>24.74710817510983</v>
       </c>
       <c r="B145" t="n">
-        <v>39.42765142001473</v>
+        <v>-22.30671870690472</v>
       </c>
       <c r="C145" t="n">
-        <v>-37.90486670536071</v>
+        <v>17.82881753735189</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-19.77554184274878</v>
+        <v>-12.78184333924904</v>
       </c>
       <c r="B146" t="n">
-        <v>-10.32953626599149</v>
+        <v>-22.41354592006205</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1162149038122241</v>
+        <v>-20.74348565137909</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>17.2521283549578</v>
+        <v>19.5371357780135</v>
       </c>
       <c r="B147" t="n">
-        <v>-20.9531554420051</v>
+        <v>-30.96878771766311</v>
       </c>
       <c r="C147" t="n">
-        <v>16.89471845665967</v>
+        <v>-20.5060037067452</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>42.98804009870351</v>
+        <v>24.96697317659382</v>
       </c>
       <c r="B148" t="n">
-        <v>47.4454402890454</v>
+        <v>-35.83372203522021</v>
       </c>
       <c r="C148" t="n">
-        <v>-2.973013857899522</v>
+        <v>36.49752320697043</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-0.1769840650729582</v>
+        <v>19.95632169677377</v>
       </c>
       <c r="B149" t="n">
-        <v>62.25099501834129</v>
+        <v>-37.91913073742269</v>
       </c>
       <c r="C149" t="n">
-        <v>-14.3387617926636</v>
+        <v>-23.05440834585838</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>58.83833046258611</v>
+        <v>-27.04086314565206</v>
       </c>
       <c r="B150" t="n">
-        <v>-16.95107095632065</v>
+        <v>11.04937400704851</v>
       </c>
       <c r="C150" t="n">
-        <v>34.2633588159803</v>
+        <v>-17.6547659680273</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-19.47486975491155</v>
+        <v>-19.18418613230516</v>
       </c>
       <c r="B151" t="n">
-        <v>8.395008986244044</v>
+        <v>29.22225625284214</v>
       </c>
       <c r="C151" t="n">
-        <v>-21.61963098535069</v>
+        <v>40.21315731039731</v>
       </c>
     </row>
   </sheetData>
@@ -2139,1107 +2139,1107 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-23.82070276191595</v>
+        <v>-15.2304526241563</v>
       </c>
       <c r="B2" t="n">
-        <v>-21.10336545246546</v>
+        <v>21.33727142525087</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.75146896417878</v>
+        <v>-41.31396861865188</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>55.34409131712538</v>
+        <v>28.5160338638134</v>
       </c>
       <c r="B3" t="n">
-        <v>38.62111831952432</v>
+        <v>18.83147969118778</v>
       </c>
       <c r="C3" t="n">
-        <v>16.35710126346002</v>
+        <v>-30.57090530825571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>49.22206128414726</v>
+        <v>13.28448159746542</v>
       </c>
       <c r="B4" t="n">
-        <v>22.16658903932569</v>
+        <v>37.73313840173231</v>
       </c>
       <c r="C4" t="n">
-        <v>-26.11114145348711</v>
+        <v>-30.71133628172882</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-7.702355329574082</v>
+        <v>-18.76608550161411</v>
       </c>
       <c r="B5" t="n">
-        <v>-37.58546485320789</v>
+        <v>-35.11998263026162</v>
       </c>
       <c r="C5" t="n">
-        <v>21.61275121506627</v>
+        <v>27.64130168293907</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32.44365568627828</v>
+        <v>-11.46153405721005</v>
       </c>
       <c r="B6" t="n">
-        <v>-18.53604308881808</v>
+        <v>-30.04333728528622</v>
       </c>
       <c r="C6" t="n">
-        <v>-16.0752051199879</v>
+        <v>-22.364507709075</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-27.66919104285327</v>
+        <v>-29.15641097488857</v>
       </c>
       <c r="B7" t="n">
-        <v>-31.37667648349527</v>
+        <v>12.48788618496365</v>
       </c>
       <c r="C7" t="n">
-        <v>-29.28979837581965</v>
+        <v>-26.09654135037062</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13.46399194809301</v>
+        <v>34.31490690774261</v>
       </c>
       <c r="B8" t="n">
-        <v>-29.64630071360079</v>
+        <v>27.47871020334834</v>
       </c>
       <c r="C8" t="n">
-        <v>-26.71786356952797</v>
+        <v>34.27226895551266</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19.73957975995329</v>
+        <v>-28.05475460615337</v>
       </c>
       <c r="B9" t="n">
-        <v>-28.23299708850324</v>
+        <v>-20.05299773319603</v>
       </c>
       <c r="C9" t="n">
-        <v>-37.28151147073334</v>
+        <v>26.24471228655464</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.002363991349635</v>
+        <v>-17.49515207998871</v>
       </c>
       <c r="B10" t="n">
-        <v>-49.64718444666079</v>
+        <v>22.03806304692486</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.333454667796019</v>
+        <v>52.15875364010004</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-20.71344804144724</v>
+        <v>17.79386857741357</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.60352439461484</v>
+        <v>21.06403340507194</v>
       </c>
       <c r="C11" t="n">
-        <v>54.52236071305517</v>
+        <v>21.50507422978254</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>42.61924808233879</v>
+        <v>22.69460110202413</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.933669895381623</v>
+        <v>28.43942405824457</v>
       </c>
       <c r="C12" t="n">
-        <v>-22.55897809390618</v>
+        <v>-35.77729897901808</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-12.41344022259185</v>
+        <v>-25.55413242319214</v>
       </c>
       <c r="B13" t="n">
-        <v>17.2679720530616</v>
+        <v>-37.82349490783481</v>
       </c>
       <c r="C13" t="n">
-        <v>-23.35105074728112</v>
+        <v>-27.75211780906423</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>30.71873071391214</v>
+        <v>-28.03762205103238</v>
       </c>
       <c r="B14" t="n">
-        <v>-24.39373391952485</v>
+        <v>-18.84423956961054</v>
       </c>
       <c r="C14" t="n">
-        <v>-32.48205751232717</v>
+        <v>-20.46126961729539</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>25.05619794285273</v>
+        <v>-23.15957038899881</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.671354698902509</v>
+        <v>-23.45669381791373</v>
       </c>
       <c r="C15" t="n">
-        <v>-30.66234329534179</v>
+        <v>-27.29376477430367</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>41.75524740015282</v>
+        <v>-28.57590507805281</v>
       </c>
       <c r="B16" t="n">
-        <v>-16.22044423038446</v>
+        <v>-36.64573006820235</v>
       </c>
       <c r="C16" t="n">
-        <v>-23.42226150184158</v>
+        <v>13.83789528546303</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-28.39542373687489</v>
+        <v>16.85226298690057</v>
       </c>
       <c r="B17" t="n">
-        <v>23.70009275588234</v>
+        <v>-16.50266868835996</v>
       </c>
       <c r="C17" t="n">
-        <v>45.84821906823876</v>
+        <v>-31.74480990232523</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8.811120969954519</v>
+        <v>-31.14692292666098</v>
       </c>
       <c r="B18" t="n">
-        <v>18.40131389023502</v>
+        <v>38.75378544221915</v>
       </c>
       <c r="C18" t="n">
-        <v>-36.17982499071013</v>
+        <v>-31.42388670146319</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>22.63060022232417</v>
+        <v>30.5195910189806</v>
       </c>
       <c r="B19" t="n">
-        <v>41.81779978863552</v>
+        <v>-9.962966881422931</v>
       </c>
       <c r="C19" t="n">
-        <v>34.96368934795485</v>
+        <v>-21.54106321082046</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>53.57229694382866</v>
+        <v>29.82216086112691</v>
       </c>
       <c r="B20" t="n">
-        <v>-26.1058021561554</v>
+        <v>-23.23359373800549</v>
       </c>
       <c r="C20" t="n">
-        <v>38.98954240743501</v>
+        <v>-13.82019572555187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-15.79949985548208</v>
+        <v>-23.34568011306032</v>
       </c>
       <c r="B21" t="n">
-        <v>-7.591431481731215</v>
+        <v>-18.75726995376299</v>
       </c>
       <c r="C21" t="n">
-        <v>-3.223096512898302</v>
+        <v>-3.101184852064965</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>40.73023808854634</v>
+        <v>23.83433951147583</v>
       </c>
       <c r="B22" t="n">
-        <v>-18.46777776616514</v>
+        <v>30.37104885855172</v>
       </c>
       <c r="C22" t="n">
-        <v>8.267777117532718</v>
+        <v>24.25539417402825</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>19.85065327373901</v>
+        <v>-7.074133489500309</v>
       </c>
       <c r="B23" t="n">
-        <v>49.68302954160364</v>
+        <v>-21.77118529663691</v>
       </c>
       <c r="C23" t="n">
-        <v>-5.449199461380501</v>
+        <v>18.52478118343117</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-26.78805567936002</v>
+        <v>-38.74790778878572</v>
       </c>
       <c r="B24" t="n">
-        <v>9.451525405314827</v>
+        <v>28.99248835822953</v>
       </c>
       <c r="C24" t="n">
-        <v>44.19760457469987</v>
+        <v>26.12352067040643</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-27.27739399281954</v>
+        <v>-26.79701640675511</v>
       </c>
       <c r="B25" t="n">
-        <v>-21.50261673948355</v>
+        <v>-21.8630363553739</v>
       </c>
       <c r="C25" t="n">
-        <v>-19.27957460770273</v>
+        <v>-18.86047321898619</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>16.32046900762207</v>
+        <v>-25.75085346482825</v>
       </c>
       <c r="B26" t="n">
-        <v>-15.45147431227298</v>
+        <v>23.95745041550513</v>
       </c>
       <c r="C26" t="n">
-        <v>-28.74001400348059</v>
+        <v>28.08940650651395</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-18.48697673645654</v>
+        <v>-7.366123752756033</v>
       </c>
       <c r="B27" t="n">
-        <v>60.88320461744333</v>
+        <v>25.07739287716483</v>
       </c>
       <c r="C27" t="n">
-        <v>-24.8173964095589</v>
+        <v>-18.95007110235615</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>62.45507386702838</v>
+        <v>16.59103801854333</v>
       </c>
       <c r="B28" t="n">
-        <v>-25.42367311014589</v>
+        <v>26.37365393363534</v>
       </c>
       <c r="C28" t="n">
-        <v>49.49077312097744</v>
+        <v>-22.15445469326258</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-23.27729457294022</v>
+        <v>20.47752902172136</v>
       </c>
       <c r="B29" t="n">
-        <v>32.52625734345895</v>
+        <v>35.06195660975734</v>
       </c>
       <c r="C29" t="n">
-        <v>-23.38149154661517</v>
+        <v>-25.73409484010087</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-22.28305359570034</v>
+        <v>-48.40732858436665</v>
       </c>
       <c r="B30" t="n">
-        <v>-26.9630494413882</v>
+        <v>13.62897729593237</v>
       </c>
       <c r="C30" t="n">
-        <v>-25.03721874442754</v>
+        <v>-23.16662844958738</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-20.41660349127077</v>
+        <v>-28.41477504683929</v>
       </c>
       <c r="B31" t="n">
-        <v>-39.56363570562044</v>
+        <v>29.61020651250732</v>
       </c>
       <c r="C31" t="n">
-        <v>-33.15416997360047</v>
+        <v>-31.08145423211923</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-37.83392991318069</v>
+        <v>-12.54016223107506</v>
       </c>
       <c r="B32" t="n">
-        <v>15.8958824949482</v>
+        <v>20.44118157769392</v>
       </c>
       <c r="C32" t="n">
-        <v>-22.5578641201274</v>
+        <v>-29.63279646755993</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-18.43703412266512</v>
+        <v>22.73113855228051</v>
       </c>
       <c r="B33" t="n">
-        <v>52.58270472661446</v>
+        <v>-19.53137349571218</v>
       </c>
       <c r="C33" t="n">
-        <v>-18.78625122565838</v>
+        <v>-14.05837810188072</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.297153722174126</v>
+        <v>-32.78439196628477</v>
       </c>
       <c r="B34" t="n">
-        <v>6.224020929502561</v>
+        <v>24.92862641510033</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9805199919696247</v>
+        <v>28.46144218314498</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>50.58759572320373</v>
+        <v>-26.91258641616248</v>
       </c>
       <c r="B35" t="n">
-        <v>77.59992018173909</v>
+        <v>-18.08226686704974</v>
       </c>
       <c r="C35" t="n">
-        <v>-17.07336459525856</v>
+        <v>31.27410615632755</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-29.7435419763324</v>
+        <v>-9.979194996769294</v>
       </c>
       <c r="B36" t="n">
-        <v>-23.68281613700763</v>
+        <v>-14.71283688029288</v>
       </c>
       <c r="C36" t="n">
-        <v>17.67556343822414</v>
+        <v>-26.52742101151843</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.298482087572467</v>
+        <v>23.78410432201621</v>
       </c>
       <c r="B37" t="n">
-        <v>-19.52362971470204</v>
+        <v>20.6057912402597</v>
       </c>
       <c r="C37" t="n">
-        <v>-16.64614960224407</v>
+        <v>-23.12419228385024</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-24.33678501850792</v>
+        <v>-25.47701224219973</v>
       </c>
       <c r="B38" t="n">
-        <v>22.19347742720817</v>
+        <v>-22.13030206408282</v>
       </c>
       <c r="C38" t="n">
-        <v>45.31635898283743</v>
+        <v>30.76930345713948</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>22.47793242327764</v>
+        <v>-18.15991499334735</v>
       </c>
       <c r="B39" t="n">
-        <v>-40.68845182661624</v>
+        <v>-24.79121397349081</v>
       </c>
       <c r="C39" t="n">
-        <v>-22.00022398993486</v>
+        <v>-25.23736710747872</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>24.10747922369274</v>
+        <v>29.76192109868995</v>
       </c>
       <c r="B40" t="n">
-        <v>-17.14204494012705</v>
+        <v>27.21552379456095</v>
       </c>
       <c r="C40" t="n">
-        <v>-15.49247396622194</v>
+        <v>24.05616843842165</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>23.26909271314326</v>
+        <v>-30.06235953345064</v>
       </c>
       <c r="B41" t="n">
-        <v>43.86357973722578</v>
+        <v>25.2590442477209</v>
       </c>
       <c r="C41" t="n">
-        <v>38.88727959370888</v>
+        <v>-41.3684022919383</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-13.67051302413315</v>
+        <v>28.00427045586016</v>
       </c>
       <c r="B42" t="n">
-        <v>24.96802309999563</v>
+        <v>-16.31657176545827</v>
       </c>
       <c r="C42" t="n">
-        <v>-6.8271248179129</v>
+        <v>-19.8209499208903</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-20.20058616656539</v>
+        <v>-24.90294963864882</v>
       </c>
       <c r="B43" t="n">
-        <v>40.26541242817921</v>
+        <v>26.87507653487755</v>
       </c>
       <c r="C43" t="n">
-        <v>6.511778942176169</v>
+        <v>-30.79142839499498</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-33.49841126500966</v>
+        <v>-27.93109290948189</v>
       </c>
       <c r="B44" t="n">
-        <v>-9.719883528579908</v>
+        <v>-33.05379588017684</v>
       </c>
       <c r="C44" t="n">
-        <v>30.5019054924228</v>
+        <v>-33.91074783826839</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-15.60016032501976</v>
+        <v>22.52439767215555</v>
       </c>
       <c r="B45" t="n">
-        <v>15.05537357449005</v>
+        <v>24.01846531202264</v>
       </c>
       <c r="C45" t="n">
-        <v>-20.89240794338697</v>
+        <v>-24.3114573638015</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-37.35419792569021</v>
+        <v>3.141729003543649</v>
       </c>
       <c r="B46" t="n">
-        <v>-21.37810741041257</v>
+        <v>-23.07776010497441</v>
       </c>
       <c r="C46" t="n">
-        <v>-22.31531508225831</v>
+        <v>-17.00579304982151</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-41.53966882034002</v>
+        <v>29.26347330633376</v>
       </c>
       <c r="B47" t="n">
-        <v>23.11640483992359</v>
+        <v>-25.54939304197445</v>
       </c>
       <c r="C47" t="n">
-        <v>-28.43499704625193</v>
+        <v>-35.57666782002293</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>34.7035513518217</v>
+        <v>-19.34225418764091</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5799082859591299</v>
+        <v>24.85317882053192</v>
       </c>
       <c r="C48" t="n">
-        <v>17.19634972857704</v>
+        <v>-29.41874297076685</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>22.25643462582049</v>
+        <v>29.53580491575361</v>
       </c>
       <c r="B49" t="n">
-        <v>-30.99580898284253</v>
+        <v>-34.84298202623877</v>
       </c>
       <c r="C49" t="n">
-        <v>-28.54622177914159</v>
+        <v>28.35156237884744</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11.32889068386461</v>
+        <v>-29.93145762868643</v>
       </c>
       <c r="B50" t="n">
-        <v>-28.56244009629185</v>
+        <v>-15.0825306901924</v>
       </c>
       <c r="C50" t="n">
-        <v>38.43991252322765</v>
+        <v>17.38155453868585</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-14.28226635557885</v>
+        <v>33.3326917073215</v>
       </c>
       <c r="B51" t="n">
-        <v>-12.29827415841719</v>
+        <v>-25.43471059502743</v>
       </c>
       <c r="C51" t="n">
-        <v>-20.42984632659076</v>
+        <v>-26.0289617693378</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>24.16179828134397</v>
+        <v>30.93920607325805</v>
       </c>
       <c r="B52" t="n">
-        <v>-10.0605676793702</v>
+        <v>-24.70586238664005</v>
       </c>
       <c r="C52" t="n">
-        <v>-30.62907209844278</v>
+        <v>-22.9263244009298</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-26.89920582738857</v>
+        <v>41.2007625719542</v>
       </c>
       <c r="B53" t="n">
-        <v>29.68868480312866</v>
+        <v>35.59883015640825</v>
       </c>
       <c r="C53" t="n">
-        <v>-25.91083341427883</v>
+        <v>-19.15897707030568</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2.758991671900488</v>
+        <v>20.71103823772492</v>
       </c>
       <c r="B54" t="n">
-        <v>-15.96395667931491</v>
+        <v>-15.50115078994692</v>
       </c>
       <c r="C54" t="n">
-        <v>-24.97695317753716</v>
+        <v>11.92648194332586</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-5.530424251002261</v>
+        <v>32.75753734536971</v>
       </c>
       <c r="B55" t="n">
-        <v>-30.39148793640536</v>
+        <v>17.76029945024257</v>
       </c>
       <c r="C55" t="n">
-        <v>-21.56128981903979</v>
+        <v>-16.81591698207768</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-30.0803093843573</v>
+        <v>2.859819872130761</v>
       </c>
       <c r="B56" t="n">
-        <v>15.78911307302341</v>
+        <v>15.42030140133215</v>
       </c>
       <c r="C56" t="n">
-        <v>-30.40510473631928</v>
+        <v>27.60421360345384</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>37.4091644844818</v>
+        <v>-8.14965750736166</v>
       </c>
       <c r="B57" t="n">
-        <v>-31.17437430111246</v>
+        <v>-22.34876019048571</v>
       </c>
       <c r="C57" t="n">
-        <v>1.923699618102448</v>
+        <v>-17.40206203105473</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-32.86284566843348</v>
+        <v>-23.53580876360697</v>
       </c>
       <c r="B58" t="n">
-        <v>26.14425934116206</v>
+        <v>-27.49459873506312</v>
       </c>
       <c r="C58" t="n">
-        <v>-9.955909666895314</v>
+        <v>23.18677148995264</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>23.53215576799178</v>
+        <v>11.02260025686024</v>
       </c>
       <c r="B59" t="n">
-        <v>-26.30471905947574</v>
+        <v>25.93912554263074</v>
       </c>
       <c r="C59" t="n">
-        <v>-23.12199670039257</v>
+        <v>-26.7455351010482</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>18.9735877917817</v>
+        <v>-42.47515086630286</v>
       </c>
       <c r="B60" t="n">
-        <v>10.92582050344874</v>
+        <v>21.72321399327587</v>
       </c>
       <c r="C60" t="n">
-        <v>39.70295533680878</v>
+        <v>-30.49680746097123</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>51.50435857935587</v>
+        <v>25.12356892671021</v>
       </c>
       <c r="B61" t="n">
-        <v>-31.27726653747133</v>
+        <v>-22.6737386505562</v>
       </c>
       <c r="C61" t="n">
-        <v>-35.81450937938886</v>
+        <v>9.420350466540395</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>29.24423876610229</v>
+        <v>32.41979304797729</v>
       </c>
       <c r="B62" t="n">
-        <v>-32.37343620483971</v>
+        <v>-19.52808922390723</v>
       </c>
       <c r="C62" t="n">
-        <v>9.694037447694187</v>
+        <v>-29.93360968568242</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-14.93443039610868</v>
+        <v>-8.41971353021397</v>
       </c>
       <c r="B63" t="n">
-        <v>-14.86199045095443</v>
+        <v>-26.90574838641673</v>
       </c>
       <c r="C63" t="n">
-        <v>11.79349441949522</v>
+        <v>-26.07212304398692</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>21.41793043020763</v>
+        <v>-34.21905883866556</v>
       </c>
       <c r="B64" t="n">
-        <v>-30.9726606808781</v>
+        <v>-26.18399649008163</v>
       </c>
       <c r="C64" t="n">
-        <v>32.69023580488165</v>
+        <v>12.5240183460668</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>29.19318587750847</v>
+        <v>22.52720884167448</v>
       </c>
       <c r="B65" t="n">
-        <v>-31.88500845118995</v>
+        <v>-35.03440119717195</v>
       </c>
       <c r="C65" t="n">
-        <v>-18.65342685698611</v>
+        <v>-23.29228024328842</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-17.07222901780008</v>
+        <v>25.61650969147678</v>
       </c>
       <c r="B66" t="n">
-        <v>-37.72554566252515</v>
+        <v>22.60145881031561</v>
       </c>
       <c r="C66" t="n">
-        <v>-29.36937094720437</v>
+        <v>18.06260369811743</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-16.0283200416009</v>
+        <v>24.57939810474457</v>
       </c>
       <c r="B67" t="n">
-        <v>58.90600406669618</v>
+        <v>-35.54440250508577</v>
       </c>
       <c r="C67" t="n">
-        <v>-20.25571984929108</v>
+        <v>30.58942178902956</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-25.39677104188131</v>
+        <v>-18.09307742455579</v>
       </c>
       <c r="B68" t="n">
-        <v>3.174475077937751</v>
+        <v>-26.41105288255317</v>
       </c>
       <c r="C68" t="n">
-        <v>-25.42426695288178</v>
+        <v>-28.3020303120586</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-34.37493126224146</v>
+        <v>-31.99654795379058</v>
       </c>
       <c r="B69" t="n">
-        <v>-22.09583721846641</v>
+        <v>18.27251100271246</v>
       </c>
       <c r="C69" t="n">
-        <v>-32.21794548372554</v>
+        <v>-29.9668480163315</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>36.13509236388256</v>
+        <v>-20.96775830076345</v>
       </c>
       <c r="B70" t="n">
-        <v>41.87735009845692</v>
+        <v>-18.15937229467354</v>
       </c>
       <c r="C70" t="n">
-        <v>-24.97318800103469</v>
+        <v>-27.62095071878384</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>46.39856132859031</v>
+        <v>-23.97144252994969</v>
       </c>
       <c r="B71" t="n">
-        <v>-22.05270554586998</v>
+        <v>25.0668210754707</v>
       </c>
       <c r="C71" t="n">
-        <v>23.02029628735861</v>
+        <v>10.3640466071169</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-50.27645262568524</v>
+        <v>-14.26518210708498</v>
       </c>
       <c r="B72" t="n">
-        <v>-22.56045337589581</v>
+        <v>-32.36258887463182</v>
       </c>
       <c r="C72" t="n">
-        <v>40.18178780037723</v>
+        <v>-14.54192371426857</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-10.33272568504939</v>
+        <v>18.35664886371503</v>
       </c>
       <c r="B73" t="n">
-        <v>-4.230280126740826</v>
+        <v>30.31363337426834</v>
       </c>
       <c r="C73" t="n">
-        <v>-24.40572746700289</v>
+        <v>-15.50046788829862</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-26.3766220761618</v>
+        <v>37.05042124031809</v>
       </c>
       <c r="B74" t="n">
-        <v>22.22885092695059</v>
+        <v>-34.36526395148905</v>
       </c>
       <c r="C74" t="n">
-        <v>18.13098287729076</v>
+        <v>-28.88855722944685</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-33.51174444004849</v>
+        <v>-24.07557404603171</v>
       </c>
       <c r="B75" t="n">
-        <v>35.07090359640113</v>
+        <v>21.79157457658258</v>
       </c>
       <c r="C75" t="n">
-        <v>-33.13082066098141</v>
+        <v>-25.85432189729412</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.43699651304987</v>
+        <v>-17.23607979552342</v>
       </c>
       <c r="B76" t="n">
-        <v>-17.99433740018615</v>
+        <v>40.35240001609928</v>
       </c>
       <c r="C76" t="n">
-        <v>44.91068931311136</v>
+        <v>42.16662664572281</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>25.41095976278</v>
+        <v>-24.30555122152911</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.623718259510327</v>
+        <v>28.2256484021812</v>
       </c>
       <c r="C77" t="n">
-        <v>-24.43719581617041</v>
+        <v>-10.6762101111155</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>19.99584625795654</v>
+        <v>-18.7041297940268</v>
       </c>
       <c r="B78" t="n">
-        <v>-30.51783124900311</v>
+        <v>-33.8281957311057</v>
       </c>
       <c r="C78" t="n">
-        <v>-41.40374788403528</v>
+        <v>-20.84865314409274</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-38.24751666438331</v>
+        <v>29.53064571146851</v>
       </c>
       <c r="B79" t="n">
-        <v>5.546948070914907</v>
+        <v>-20.18958724357681</v>
       </c>
       <c r="C79" t="n">
-        <v>2.392250424804292</v>
+        <v>24.3017088159217</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-38.73825527704344</v>
+        <v>25.52910248754751</v>
       </c>
       <c r="B80" t="n">
-        <v>-25.70377484536449</v>
+        <v>-23.31735980421945</v>
       </c>
       <c r="C80" t="n">
-        <v>23.30287263080649</v>
+        <v>-29.43258840376646</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-31.04618273266622</v>
+        <v>21.73802999943645</v>
       </c>
       <c r="B81" t="n">
-        <v>-29.248569064665</v>
+        <v>23.9763030673015</v>
       </c>
       <c r="C81" t="n">
-        <v>-6.558784809415484</v>
+        <v>-18.7967914637206</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>23.72702525307968</v>
+        <v>-30.01556522597242</v>
       </c>
       <c r="B82" t="n">
-        <v>-9.99382617075705</v>
+        <v>-25.74250262207795</v>
       </c>
       <c r="C82" t="n">
-        <v>31.26581003868299</v>
+        <v>-25.56861873646478</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-17.22113189928265</v>
+        <v>26.11986081872551</v>
       </c>
       <c r="B83" t="n">
-        <v>33.5929758430222</v>
+        <v>26.6611458646389</v>
       </c>
       <c r="C83" t="n">
-        <v>22.85403442043215</v>
+        <v>46.46509954135928</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-14.16453998268043</v>
+        <v>17.06641919307847</v>
       </c>
       <c r="B84" t="n">
-        <v>17.90809899539541</v>
+        <v>21.82282140447018</v>
       </c>
       <c r="C84" t="n">
-        <v>-28.24655592392273</v>
+        <v>29.41991032825207</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-20.95004725390255</v>
+        <v>24.153024180609</v>
       </c>
       <c r="B85" t="n">
-        <v>27.51587289228102</v>
+        <v>-30.5985916831216</v>
       </c>
       <c r="C85" t="n">
-        <v>-32.56261449958978</v>
+        <v>-21.89604046182395</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>24.21647689619224</v>
+        <v>27.11001432647742</v>
       </c>
       <c r="B86" t="n">
-        <v>-9.806158451287175</v>
+        <v>-31.57646793403774</v>
       </c>
       <c r="C86" t="n">
-        <v>35.64516862911037</v>
+        <v>22.72312677541574</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-26.80663964593073</v>
+        <v>-13.64511133638865</v>
       </c>
       <c r="B87" t="n">
-        <v>-28.61949566812725</v>
+        <v>39.47259157777857</v>
       </c>
       <c r="C87" t="n">
-        <v>-27.94194057356419</v>
+        <v>32.97975828216182</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-31.9109715818499</v>
+        <v>39.56391654089158</v>
       </c>
       <c r="B88" t="n">
-        <v>45.59786146908512</v>
+        <v>25.30427035319192</v>
       </c>
       <c r="C88" t="n">
-        <v>-20.27711475384633</v>
+        <v>11.67149682007</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>41.79036805058119</v>
+        <v>23.23412889348774</v>
       </c>
       <c r="B89" t="n">
-        <v>-38.77584677060815</v>
+        <v>5.224593874317764</v>
       </c>
       <c r="C89" t="n">
-        <v>4.597132474678213</v>
+        <v>25.41193625066856</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-23.95434359803729</v>
+        <v>-8.176815591112346</v>
       </c>
       <c r="B90" t="n">
-        <v>23.73606635806705</v>
+        <v>22.26052898552112</v>
       </c>
       <c r="C90" t="n">
-        <v>-8.249159839664246</v>
+        <v>40.85166149118773</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>50.13271460765986</v>
+        <v>-30.33852708537643</v>
       </c>
       <c r="B91" t="n">
-        <v>-23.62212350386116</v>
+        <v>34.79768285835083</v>
       </c>
       <c r="C91" t="n">
-        <v>27.01791185706315</v>
+        <v>21.19654695174944</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-22.40902822972898</v>
+        <v>-35.40440421998505</v>
       </c>
       <c r="B92" t="n">
-        <v>-17.31205552781955</v>
+        <v>31.67073514538428</v>
       </c>
       <c r="C92" t="n">
-        <v>33.49200759313886</v>
+        <v>-14.7437736532711</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-29.46249567825815</v>
+        <v>-34.38515439921071</v>
       </c>
       <c r="B93" t="n">
-        <v>53.42915072886865</v>
+        <v>27.1676630843832</v>
       </c>
       <c r="C93" t="n">
-        <v>51.15393926464883</v>
+        <v>14.92152374116679</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>6.439365997143509</v>
+        <v>-28.84122107436905</v>
       </c>
       <c r="B94" t="n">
-        <v>-16.07537571984449</v>
+        <v>-26.96067471960615</v>
       </c>
       <c r="C94" t="n">
-        <v>23.21859884219766</v>
+        <v>23.2942335587168</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-24.61210248574553</v>
+        <v>-11.5482221961408</v>
       </c>
       <c r="B95" t="n">
-        <v>-8.697415435155696</v>
+        <v>-13.29633155520704</v>
       </c>
       <c r="C95" t="n">
-        <v>-13.50424568775248</v>
+        <v>11.73249177513493</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>48.40231011912269</v>
+        <v>-22.28354219285439</v>
       </c>
       <c r="B96" t="n">
-        <v>37.94557042220339</v>
+        <v>28.33519311734314</v>
       </c>
       <c r="C96" t="n">
-        <v>22.11382780309003</v>
+        <v>35.60180452566777</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-20.06799497863771</v>
+        <v>10.58950933043928</v>
       </c>
       <c r="B97" t="n">
-        <v>-14.33392759158989</v>
+        <v>17.79793880183422</v>
       </c>
       <c r="C97" t="n">
-        <v>31.89812196563626</v>
+        <v>-38.17925725095063</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>45.85615136321159</v>
+        <v>-13.85658264274265</v>
       </c>
       <c r="B98" t="n">
-        <v>-34.26844766557345</v>
+        <v>-20.24481633298426</v>
       </c>
       <c r="C98" t="n">
-        <v>-18.73185579706097</v>
+        <v>33.19383666111721</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>20.81091361835193</v>
+        <v>-20.50805363079571</v>
       </c>
       <c r="B99" t="n">
-        <v>-36.00098123578321</v>
+        <v>-15.28453985685786</v>
       </c>
       <c r="C99" t="n">
-        <v>62.54127137599235</v>
+        <v>-17.33539328563357</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>31.67808677183507</v>
+        <v>-3.157592508820697</v>
       </c>
       <c r="B100" t="n">
-        <v>-30.99475880391996</v>
+        <v>30.09748599911921</v>
       </c>
       <c r="C100" t="n">
-        <v>27.35731068201521</v>
+        <v>-28.52744956695635</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-28.4887455369547</v>
+        <v>-31.23147787279864</v>
       </c>
       <c r="B101" t="n">
-        <v>-22.26577351239215</v>
+        <v>-22.71807274032321</v>
       </c>
       <c r="C101" t="n">
-        <v>33.16000348232995</v>
+        <v>11.57272687068952</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>39.15059063011677</v>
+        <v>-32.35130498005864</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-28.30685577052699</v>
+        <v>25.67998818215286</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-27.80391995668922</v>
+        <v>21.62730062623163</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-28.0370143598925</v>
+        <v>29.56659586502958</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-31.67971113476878</v>
+        <v>-16.54648813544382</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>36.22978440157626</v>
+        <v>-32.96787340048044</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-20.30061591788743</v>
+        <v>-25.24418995681258</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>31.0709627765419</v>
+        <v>36.67165236213514</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-25.80384085063572</v>
+        <v>18.5874836184076</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-14.42296474084479</v>
+        <v>-22.50910388680505</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-22.28241639753879</v>
+        <v>-16.7525782021297</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-14.5753370678144</v>
+        <v>-6.007341988230753</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>26.9511113871121</v>
+        <v>-37.90533652039365</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>8.202129281530267</v>
+        <v>-27.59460228368195</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.3769709280315071</v>
+        <v>32.56640190439984</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>27.27241102546889</v>
+        <v>25.1874926451693</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>19.66225960306757</v>
+        <v>25.09668433432724</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>26.6643385808237</v>
+        <v>-29.81067301031851</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>41.00776057305575</v>
+        <v>36.28883637232101</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-38.74210348806028</v>
+        <v>33.7556571163439</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>34.40785453967023</v>
+        <v>-19.37391271702796</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>20.78712121251328</v>
+        <v>34.72930409584203</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-32.05714684217563</v>
+        <v>24.60002567136689</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-33.38057033361998</v>
+        <v>23.46865702815155</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-13.2565443520814</v>
+        <v>-11.10595398746676</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-20.99906142000475</v>
+        <v>23.8169012830189</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-21.88863530656713</v>
+        <v>34.91817867782941</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>47.86648319376054</v>
+        <v>-30.48083041556577</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>32.80246586683116</v>
+        <v>-11.52083496801126</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>52.648162602275</v>
+        <v>-38.48437712249066</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-27.32070715952879</v>
+        <v>-30.40362395543769</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>40.1549274467457</v>
+        <v>24.005114953515</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>31.53284232049455</v>
+        <v>-13.45957151231929</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-18.03873690657988</v>
+        <v>-25.60096454030615</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-23.10663662064618</v>
+        <v>-31.30285313386674</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-31.04345235101915</v>
+        <v>-18.89940441337607</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-34.9299986088566</v>
+        <v>-15.30258384185412</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-9.601353742850833</v>
+        <v>-7.104950398201918</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>40.22145331549746</v>
+        <v>-42.42392564531192</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-19.80035902601873</v>
+        <v>28.06340043679135</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>21.90652726851791</v>
+        <v>-22.54092247516987</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-40.91526110207685</v>
+        <v>21.11210104109086</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>24.57533720825664</v>
+        <v>-46.53959248816598</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-17.66558660729637</v>
+        <v>-29.06855025111144</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-23.55452830021029</v>
+        <v>15.87293041981896</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>51.35939019557703</v>
+        <v>-40.28252136604175</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-19.87529707280921</v>
+        <v>17.10515899103075</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>52.31438367193547</v>
+        <v>-23.50635177911803</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>25.73115679676156</v>
+        <v>16.72394287023655</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>15.22597008684575</v>
+        <v>-28.52317396792316</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
